--- a/_data/whova-presymposium-excel.xlsx
+++ b/_data/whova-presymposium-excel.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3654" uniqueCount="2839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3654" uniqueCount="2838">
   <si>
     <t>*Date</t>
   </si>
@@ -8620,9 +8620,6 @@
 &lt;p&gt;To open this session, CEO Prahasith Veluvolu will explain how Mimir is helping instructors, like Ghidiu, meet class size demand while offering free, pre-loaded curriculum through Mimir Classroom. Ghidiu will elaborate on his user experience, the 3-minute average response time he receives from support, and how he utilizes 40 languages, frameworks, and databases to teach his students. Veluvolu will highlight features in Mimir Classroom that have helped universities like Northern Kentucky University, Quinnipiac University, and Michigan State University optimize their courses.&lt;/p&gt;
 &lt;p&gt;Learn more about Mimir Classroom before the conference by visiting &lt;a href="http://www.mimirhq.com/sigcse2019"&gt;www.mimirhq.com/sigcse2019&lt;/a&gt;.&lt;/p&gt;
 &lt;img  src="https://sigcse2019.sigcse.org/images/supporters/200s/mimir-200.png" alt="MIMIR Logo"&gt;</t>
-  </si>
-  <si>
-    <t>RESPECT</t>
   </si>
   <si>
     <t>RESPECT/RPPforCS</t>
@@ -10163,7 +10160,7 @@
   <dimension ref="A1:Z36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10380,13 +10377,13 @@
         <v>10</v>
       </c>
       <c r="E5" s="54" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
       <c r="F5" s="54" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="G5" s="54" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="H5" s="54" t="s">
         <v>25</v>
@@ -10873,72 +10870,74 @@
       <c r="Z15" s="12"/>
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="15">
+      <c r="A16" s="52">
         <v>43523</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="53">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C16" s="53">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D16" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="54" t="s">
+        <v>2833</v>
+      </c>
+      <c r="F16" s="54" t="s">
+        <v>2834</v>
+      </c>
+      <c r="G16" s="54" t="s">
+        <v>2836</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16" s="28"/>
+      <c r="J16" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="28"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="28"/>
+      <c r="Z16" s="28"/>
+    </row>
+    <row r="17" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="15">
+        <v>43523</v>
+      </c>
+      <c r="B17" s="16">
         <v>0.35416666666666657</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C17" s="16">
         <v>0.70833333333333326</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D17" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E17" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F17" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G17" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="20"/>
-      <c r="W16" s="20"/>
-      <c r="X16" s="20"/>
-      <c r="Y16" s="20"/>
-      <c r="Z16" s="20"/>
-    </row>
-    <row r="17" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="21">
-        <v>43523</v>
-      </c>
-      <c r="B17" s="22">
-        <v>0.35416666666666657</v>
-      </c>
-      <c r="C17" s="22">
-        <v>0.70833333333333326</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="H17" s="20"/>
+      <c r="H17" s="19"/>
       <c r="I17" s="20"/>
       <c r="J17" s="11" t="s">
         <v>15</v>
@@ -10961,50 +10960,48 @@
       <c r="Z17" s="20"/>
     </row>
     <row r="18" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="52">
+      <c r="A18" s="21">
         <v>43523</v>
       </c>
-      <c r="B18" s="53">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="C18" s="53">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="D18" s="54" t="s">
-        <v>2833</v>
-      </c>
-      <c r="E18" s="54" t="s">
-        <v>2834</v>
-      </c>
-      <c r="F18" s="54" t="s">
-        <v>2835</v>
-      </c>
-      <c r="G18" s="54" t="s">
-        <v>2837</v>
-      </c>
-      <c r="H18" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="I18" s="28"/>
-      <c r="J18" s="26" t="s">
+      <c r="B18" s="22">
+        <v>0.35416666666666657</v>
+      </c>
+      <c r="C18" s="22">
+        <v>0.70833333333333326</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="28"/>
-      <c r="V18" s="28"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="28"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="20"/>
+      <c r="Y18" s="20"/>
+      <c r="Z18" s="20"/>
     </row>
     <row r="19" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="24">
